--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3891616.14863644</v>
+        <v>3994413.568704096</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7218991.183521111</v>
+        <v>7185091.453257153</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.7232904975583</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>92.47445699814307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>17.39296944734718</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>35.19569619650092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.93649886016453</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>63.25786276724599</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>104.5267512967235</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>158.9650032066807</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>277.7892412693016</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731277</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>55.46841004730806</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>168.4773873632145</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>73.36618625358874</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>59.44001103519365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4877306469552</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>218.7872342765196</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>92.87435055577367</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>66.2562870115476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.6787856048139</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>36.21070476472267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2524,16 +2526,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2606,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>151.0429659719018</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>221.2030256723193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>34.22340015155906</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>189.6423345837146</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>41.55695577161148</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.010065354184</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>161.5854408598109</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="U46" t="n">
-        <v>245.8796921214435</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810557</v>
@@ -4343,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>3121.906610713899</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1633.759572880768</v>
+        <v>798.5065461617548</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.823389952861</v>
+        <v>629.570363233848</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.823389952861</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.823389952861</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952861</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V4" t="n">
-        <v>2368.36596692528</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W4" t="n">
-        <v>2078.948796888319</v>
+        <v>1428.937141033542</v>
       </c>
       <c r="X4" t="n">
-        <v>1850.959245990302</v>
+        <v>1200.947590135525</v>
       </c>
       <c r="Y4" t="n">
-        <v>1815.408037711008</v>
+        <v>980.1550109919946</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1681.836054204829</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1681.836054204829</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.3528358643467</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C7" t="n">
-        <v>523.4166529364398</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D7" t="n">
-        <v>373.3000135241041</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>373.3000135241041</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>373.3000135241041</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.0013006945865</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>1881.708680670285</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.14770589484</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898456</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002381</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2268.308520734407</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>415.6479477297189</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1757.11536893373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1468.012502059374</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1213.328013853487</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>923.9108438165264</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>923.9108438165264</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y10" t="n">
-        <v>923.9108438165264</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5130,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.7084350851671</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>527.7722521572603</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>377.6556127449245</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3584617859342</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3584617859342</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4453682035411</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>923.2869892719397</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>702.4944101284095</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>2883.5126592266</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>2714.576476298693</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>2566.6633827163</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4347.120138997037</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>4058.044912341235</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>3803.360424135348</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>3513.943254098387</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>3285.95370320037</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>3065.16112405684</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1984.25569134129</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1695.180464685488</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +6001,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6074,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703114</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424045</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424045</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>526.5658826424045</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>379.6759351444941</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>212.4798358593741</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6299,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
         <v>1577.52840832642</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3274571940295</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5348780504994</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803938</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>128.3857541101527</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213312</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.757116639391</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315927</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612653</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229214</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.920990213811</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519666</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275435</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,52 +7171,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7414,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.097755135313</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-6.89113552939549e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>86.99395161137552</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.93331737597603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.922421112517583</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>124.5310997715146</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.769998990097</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>6.726664722474339</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.36248435538644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>65.31997266427166</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>27.76311574357371</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>64.12421452922626</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>127.2568112467073</v>
       </c>
       <c r="U46" t="n">
-        <v>40.30478226780065</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>629200.0946284835</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642829</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
@@ -26335,22 +26337,22 @@
         <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="M2" t="n">
-        <v>821041.7698642834</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642848</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363174</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820622</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685513</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26441,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.7520768551</v>
+      </c>
+      <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>22207.61133994845</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22207.61133994851</v>
-      </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994853</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.6113399485</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729089</v>
+        <v>-709040.7032729094</v>
       </c>
       <c r="C6" t="n">
+        <v>619704.0424546842</v>
+      </c>
+      <c r="D6" t="n">
         <v>619704.0424546836</v>
       </c>
-      <c r="D6" t="n">
-        <v>619704.0424546835</v>
-      </c>
       <c r="E6" t="n">
-        <v>366394.8559818887</v>
+        <v>366394.8559818885</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.317789244</v>
+        <v>691807.3177892442</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.317789244</v>
+        <v>691807.3177892443</v>
       </c>
       <c r="H6" t="n">
         <v>691807.317789244</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.3177892439</v>
+        <v>691807.3177892438</v>
       </c>
       <c r="J6" t="n">
         <v>474276.1153919664</v>
       </c>
       <c r="K6" t="n">
-        <v>676242.3246767891</v>
+        <v>691807.3177892439</v>
       </c>
       <c r="L6" t="n">
-        <v>695670.0426704194</v>
+        <v>691807.317789244</v>
       </c>
       <c r="M6" t="n">
-        <v>610615.0147349075</v>
+        <v>606752.2898537323</v>
       </c>
       <c r="N6" t="n">
-        <v>695670.0426704208</v>
+        <v>691807.3177892441</v>
       </c>
       <c r="O6" t="n">
-        <v>695670.0426704208</v>
+        <v>691807.317789244</v>
       </c>
       <c r="P6" t="n">
         <v>691807.3177892442</v>
@@ -26707,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734492</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>158.5207149607589</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.1300288892438</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.3889571555939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.797342803316</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>291.425178853437</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>75.30522888521384</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.060805052347547</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>104.1411288029602</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803257</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>93.1470629709043</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>51.07156191295473</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32254,7 +32256,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32318,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>409.0029787211721</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182826</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>202.2352659288684</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P45" t="n">
-        <v>230.9747494877451</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35966,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>266.8689447991538</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949316</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016748</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111713</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>68.26085851453816</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P45" t="n">
-        <v>97.00034207341486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3994413.568704096</v>
+        <v>3990400.958690102</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>92.7232904975583</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>135.612442182101</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>158.0933671656955</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.39296944734718</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>63.25786276724599</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>74.98619773129403</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.5267512967235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>277.7892412693016</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>244.245500736745</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>55.46841004730806</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>68.85005436467023</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.36618625358874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>218.7872342765196</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>92.87435055577367</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5163679066134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>210.6787856048139</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2608,13 +2608,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0429659719018</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.22340015155906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>189.6423345837146</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.55695577161148</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>161.5854408598109</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T46" t="n">
-        <v>90.14863908058098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796274</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C2" t="n">
-        <v>828.1105664881544</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>958.147330569356</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985468</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>798.5065461617548</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>629.570363233848</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040963</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040963</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1428.937141033542</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.947590135525</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>980.1550109919946</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204829</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1681.836054204829</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180641</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204829</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>607.0615673062264</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>607.0615673062264</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415171</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>933.436723517154</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.6441443736238</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670285</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1512.746163729873</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>770.2940923545314</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,13 +4816,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.5841306576258</v>
+        <v>917.6163259372735</v>
       </c>
       <c r="C10" t="n">
-        <v>415.6479477297189</v>
+        <v>748.6801430093666</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>598.5635035970308</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>450.6504100146377</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>303.7604625167273</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>136.0576258914463</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>136.0576258914463</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>1548.046920809061</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576258</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.5841306576258</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>923.2869892719397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2883.5126592266</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2714.576476298693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>2714.576476298693</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>2566.6633827163</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>2419.77343521839</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.77343521839</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4347.120138997037</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4058.044912341235</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>3803.360424135348</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3513.943254098387</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3285.95370320037</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3065.16112405684</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5743,58 +5743,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
         <v>343.0994656851783</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1984.25569134129</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.180464685488</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1440.495976479601</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.495976479601</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="23">
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4334.712221995193</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.384993990607</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.493892990697</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.418666334894</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.734178129007</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.317008092047</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3274571940295</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>295.5818533952728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>128.3857541101527</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1048.112282329344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2106.003314093041</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-6.89113552939549e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>15.00954930701833</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.922421112517583</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>124.5310997715146</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.09910511159893</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>6.726664722474339</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.36248435538644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>106.0713126946648</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>27.76311574357371</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8640922513198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>64.12421452922626</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T46" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>618778.7169977756</v>
+        <v>618778.7169977755</v>
       </c>
     </row>
     <row r="10">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="G2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.599690006</v>
@@ -26340,22 +26340,22 @@
         <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820622</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="F4" t="n">
         <v>14216.75207685505</v>
@@ -26441,16 +26441,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.752076855</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685499</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729094</v>
+        <v>-709040.7032729093</v>
       </c>
       <c r="C6" t="n">
-        <v>619704.0424546842</v>
+        <v>619704.0424546837</v>
       </c>
       <c r="D6" t="n">
         <v>619704.0424546836</v>
       </c>
       <c r="E6" t="n">
-        <v>366394.8559818885</v>
+        <v>366047.4767275325</v>
       </c>
       <c r="F6" t="n">
-        <v>691807.3177892442</v>
+        <v>691459.9385348863</v>
       </c>
       <c r="G6" t="n">
-        <v>691807.3177892443</v>
+        <v>691459.9385348868</v>
       </c>
       <c r="H6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.938534887</v>
       </c>
       <c r="I6" t="n">
-        <v>691807.3177892438</v>
+        <v>691459.9385348868</v>
       </c>
       <c r="J6" t="n">
-        <v>474276.1153919664</v>
+        <v>473928.7361376094</v>
       </c>
       <c r="K6" t="n">
-        <v>691807.3177892439</v>
+        <v>691459.9385348873</v>
       </c>
       <c r="L6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="M6" t="n">
-        <v>606752.2898537323</v>
+        <v>606404.910599375</v>
       </c>
       <c r="N6" t="n">
-        <v>691807.3177892441</v>
+        <v>691459.9385348872</v>
       </c>
       <c r="O6" t="n">
-        <v>691807.317789244</v>
+        <v>691459.938534887</v>
       </c>
       <c r="P6" t="n">
-        <v>691807.3177892442</v>
+        <v>691459.9385348869</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,28 +26801,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>272.5496012734492</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>271.2636035596105</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>61.45558211047367</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>269.1300288892438</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>291.425178853437</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.30522888521384</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>104.1411288029602</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>162.6305450049665</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>93.1470629709043</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>27.50236604516786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>79.32561221529411</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>463.9858252288377</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3990400.958690102</v>
+        <v>3992161.488992889</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>135.612442182101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>378.0272024483929</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.33835225137433</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0933671656955</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>74.98619773129403</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699758</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.98153210089605</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>186.6104237124481</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>244.245500736745</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>68.85005436467023</v>
+        <v>68.85005436467043</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>75.00788511618086</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>108.5163679066134</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116518</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176106</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>958.147330569356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>958.147330569356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,10 +4345,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4375,7 +4375,7 @@
         <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1767.604278224154</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179767</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197324</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>753.076598136463</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>584.1404152085561</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>434.0237757962203</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>286.1106822138272</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>139.2207347159168</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.517642110233</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.7250629667027</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559526</v>
+        <v>1867.116698829642</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559526</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952776</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>770.2940923545314</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2257.256030805454</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1867.116698829642</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.6163259372735</v>
+        <v>917.6163259372737</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093666</v>
+        <v>748.6801430093668</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970308</v>
+        <v>598.5635035970311</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146377</v>
+        <v>450.6504100146379</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167273</v>
+        <v>303.7604625167276</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0576258914463</v>
+        <v>136.0576258914465</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0576258914463</v>
+        <v>136.0576258914465</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581906</v>
@@ -4980,7 +4980,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -5017,73 +5017,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>478.4901340122886</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>311.2940347271686</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>169.5822035693667</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="14">
@@ -5257,10 +5257,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,10 +5749,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,58 +6126,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6615,43 +6615,43 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,7 +7496,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
         <v>1186.520756890282</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1.054035112495391e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.25795120238466</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.00954930701833</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>101.1181252153545</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.09910511159893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618778.7169977755</v>
+        <v>618778.7169977756</v>
       </c>
     </row>
     <row r="6">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
@@ -26368,19 +26368,19 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.610093858194886e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>2.976671782625058e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820617</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.752076855</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26444,13 +26444,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26484,7 +26484,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709040.7032729093</v>
+        <v>-709040.7032729089</v>
       </c>
       <c r="C6" t="n">
-        <v>619704.0424546837</v>
+        <v>619704.042454683</v>
       </c>
       <c r="D6" t="n">
-        <v>619704.0424546836</v>
+        <v>619704.0424546839</v>
       </c>
       <c r="E6" t="n">
-        <v>366047.4767275325</v>
+        <v>366360.1180564536</v>
       </c>
       <c r="F6" t="n">
-        <v>691459.9385348863</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="G6" t="n">
-        <v>691459.9385348868</v>
+        <v>691772.5798638081</v>
       </c>
       <c r="H6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="I6" t="n">
-        <v>691459.9385348868</v>
+        <v>691772.5798638088</v>
       </c>
       <c r="J6" t="n">
-        <v>473928.7361376094</v>
+        <v>474241.3774665309</v>
       </c>
       <c r="K6" t="n">
-        <v>691459.9385348873</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="L6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.5798638086</v>
       </c>
       <c r="M6" t="n">
-        <v>606404.910599375</v>
+        <v>606717.5519282966</v>
       </c>
       <c r="N6" t="n">
-        <v>691459.9385348872</v>
+        <v>691772.5798638082</v>
       </c>
       <c r="O6" t="n">
-        <v>691459.938534887</v>
+        <v>691772.5798638084</v>
       </c>
       <c r="P6" t="n">
-        <v>691459.9385348869</v>
+        <v>691772.5798638082</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26810,19 +26810,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.198799748375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27260,16 +27260,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>271.2636035596105</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>8.210736207660716</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.01406815846376</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>61.45558211047367</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104154</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.04427615813218</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>178.6624680585595</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>162.6305450049665</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>27.50236604516786</v>
+        <v>27.50236604516763</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.393277504451861e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31527,31 +31527,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31600,43 +31600,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,19 +31679,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31706,13 +31706,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>322.8964653704906</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701982</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>188.9220579561604</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
